--- a/Datasett/Skoler.xlsx
+++ b/Datasett/Skoler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639207A-8193-4360-9FA5-7F772BAE8DE7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="barne--og-ungdomsskoler-gjesdal" sheetId="1" r:id="rId1"/>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1095,20 +1096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
